--- a/Data/Subject_500/DIGIT_PRE_session-1_data.xlsx
+++ b/Data/Subject_500/DIGIT_PRE_session-1_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.4179539680480957</v>
+        <v>0.4669127464294434</v>
       </c>
       <c r="J2" t="n">
-        <v>1632808377.493484</v>
+        <v>1635840299.678905</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -516,23 +516,23 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>אני רוצה לראות סרט.</t>
+          <t>שתיתי משהו חם הבוקר.</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1191.5</v>
+        <v>1283.395833333333</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>recordNum1_sentence110_m9_d13_h8_m38_s40.wav</t>
+          <t>recordNum1_sentence88_m9_d13_h8_m37_s0.wav</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -584,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.7077417373657227</v>
+        <v>0.3418748378753662</v>
       </c>
       <c r="J3" t="n">
-        <v>1632808380.011028</v>
+        <v>1635840303.666225</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -604,23 +604,23 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>מה אני אלבש היום?</t>
+          <t>איפה החניתי את האוטו?</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1246.958333333333</v>
+        <v>1213.6875</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>recordNum1_sentence92_m9_d13_h8_m33_s37.wav</t>
+          <t>recordNum1_sentence75_m9_d13_h8_m38_s17.wav</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -676,14 +676,14 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.8127992153167725</v>
+        <v>0.455355167388916</v>
       </c>
       <c r="J4" t="n">
-        <v>1632808382.826764</v>
+        <v>1635840307.601449</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -692,23 +692,23 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>מה אני אלבש היום?</t>
+          <t>שתיתי משהו חם הבוקר.</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>1246.958333333333</v>
+        <v>1283.395833333333</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>recordNum1_sentence92_m9_d13_h8_m33_s37.wav</t>
+          <t>recordNum1_sentence88_m9_d13_h8_m37_s0.wav</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -764,14 +764,14 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.823721170425415</v>
+        <v>0.6501832008361816</v>
       </c>
       <c r="J5" t="n">
-        <v>1632808385.959587</v>
+        <v>1635840312.110635</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -780,23 +780,23 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>יש לי מטען לפלאפון.</t>
+          <t>אני צריך לבדוק את המייל.</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>1470.354166666667</v>
+        <v>1744.458333333333</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>recordNum1_sentence101_m9_d13_h8_m35_s16.wav</t>
+          <t>recordNum1_sentence100_m9_d13_h8_m34_s45.wav</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.707827091217041</v>
+        <v>0.6889958381652832</v>
       </c>
       <c r="J6" t="n">
-        <v>1632808388.859632</v>
+        <v>1635840316.784835</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -868,19 +868,19 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>בא לי לשתות קפה.</t>
+          <t>אני יושב מול מחשב.</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>1223.1875</v>
+        <v>1714.354166666667</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>recordNum1_sentence78_m9_d13_h8_m35_s10.wav</t>
+          <t>recordNum1_sentence73_m9_d13_h8_m33_s18.wav</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.8477108478546143</v>
+        <v>0.6671597957611084</v>
       </c>
       <c r="J7" t="n">
-        <v>1632808391.191755</v>
+        <v>1635840320.693637</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -956,19 +956,19 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>אני רוצה לנקות את הבית.</t>
+          <t>איפה החניתי את האוטו?</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>1072.666666666667</v>
+        <v>1213.6875</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>recordNum1_sentence103_m9_d13_h8_m36_s40.wav</t>
+          <t>recordNum1_sentence75_m9_d13_h8_m38_s17.wav</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -1028,14 +1028,14 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1.1039137840271</v>
+        <v>0.7884955406188965</v>
       </c>
       <c r="J8" t="n">
-        <v>1632808404.569611</v>
+        <v>1635840324.452325</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1118,10 +1118,10 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>5.25385308265686</v>
+        <v>3.97200345993042</v>
       </c>
       <c r="J9" t="n">
-        <v>1632808404.569611</v>
+        <v>1635840324.452325</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2.019945383071899</v>
+        <v>0.9193942546844482</v>
       </c>
       <c r="J10" t="n">
-        <v>1632808411.603466</v>
+        <v>1635840332.144512</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1214,19 +1214,19 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>בא לי לשתות קפה.</t>
+          <t>אני יושב מול מחשב.</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>1223.1875</v>
+        <v>1714.354166666667</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>recordNum1_sentence78_m9_d13_h8_m35_s10.wav</t>
+          <t>recordNum1_sentence73_m9_d13_h8_m33_s18.wav</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>6.236335277557373</v>
+        <v>2.504327774047852</v>
       </c>
       <c r="J11" t="n">
-        <v>1632808411.603466</v>
+        <v>1635840332.144512</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1300,19 +1300,19 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>בא לי לשתות קפה.</t>
+          <t>אני יושב מול מחשב.</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>1223.1875</v>
+        <v>1714.354166666667</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>recordNum1_sentence78_m9_d13_h8_m35_s10.wav</t>
+          <t>recordNum1_sentence73_m9_d13_h8_m33_s18.wav</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
@@ -1372,10 +1372,10 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1.827105760574341</v>
+        <v>0.948390007019043</v>
       </c>
       <c r="J12" t="n">
-        <v>1632808428.900543</v>
+        <v>1635840338.380436</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1384,19 +1384,19 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>אני רוצה לראות סרט.</t>
+          <t>אני יושב מול מחשב.</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>1191.5</v>
+        <v>1714.354166666667</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>recordNum1_sentence110_m9_d13_h8_m38_s40.wav</t>
+          <t>recordNum1_sentence73_m9_d13_h8_m33_s18.wav</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1460,10 +1460,10 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1.024718046188354</v>
+        <v>0.5405802726745605</v>
       </c>
       <c r="J13" t="n">
-        <v>1632808432.742736</v>
+        <v>1635840342.548259</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1472,23 +1472,23 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>יש לי מטען לפלאפון.</t>
+          <t>איפה החניתי את האוטו?</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1470.354166666667</v>
+        <v>1213.6875</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>recordNum1_sentence101_m9_d13_h8_m35_s16.wav</t>
+          <t>recordNum1_sentence75_m9_d13_h8_m38_s17.wav</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1548,31 +1548,31 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0.9932694435119629</v>
+        <v>0.7624845504760742</v>
       </c>
       <c r="J14" t="n">
-        <v>1632808435.566406</v>
+        <v>1635840346.310356</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>מה אני אלבש היום?</t>
+          <t>אני לא מרגיש דבר.</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>1246.958333333333</v>
+        <v>1213.6875</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>recordNum1_sentence92_m9_d13_h8_m33_s37.wav</t>
+          <t>recordNum1_sentence36_m9_d13_h8_m43_s20.wav</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1632,14 +1632,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0.8188986778259277</v>
+        <v>0.8583371639251709</v>
       </c>
       <c r="J15" t="n">
-        <v>1632808438.34118</v>
+        <v>1635840350.150503</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1648,23 +1648,23 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>בא לי לשתות קפה.</t>
+          <t>אני רוצה לנקות את הבית.</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>1223.1875</v>
+        <v>1072.666666666667</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>recordNum1_sentence78_m9_d13_h8_m35_s10.wav</t>
+          <t>recordNum1_sentence103_m9_d13_h8_m36_s40.wav</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1704,13 +1704,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>not_catch</t>
-        </is>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -1720,41 +1718,37 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1.524587392807007</v>
+        <v>3.34632682800293</v>
       </c>
       <c r="J16" t="n">
-        <v>1632808441.034429</v>
+        <v>1635840350.150503</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>איבדתי עניין באנשים.</t>
+          <t>אני רוצה לנקות את הבית.</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>1324.583333333333</v>
+        <v>1072.666666666667</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>recordNum1_sentence57_m9_d13_h8_m41_s3.wav</t>
+          <t>recordNum1_sentence103_m9_d13_h8_m36_s40.wav</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>57</v>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>odd</t>
-        </is>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
           <t>m</t>
@@ -1804,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1812,35 +1806,35 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0.5392005443572998</v>
+        <v>2.343891859054565</v>
       </c>
       <c r="J17" t="n">
-        <v>1632808444.324252</v>
+        <v>1635840357.248276</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>אני לא מרגיש דבר.</t>
+          <t>אני צריך לבדוק את המייל.</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1213.6875</v>
+        <v>1744.458333333333</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>recordNum1_sentence36_m9_d13_h8_m43_s20.wav</t>
+          <t>recordNum1_sentence100_m9_d13_h8_m34_s45.wav</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1896,14 +1890,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0.6920936107635498</v>
+        <v>0.8285338878631592</v>
       </c>
       <c r="J18" t="n">
-        <v>1632808446.48325</v>
+        <v>1635840362.908308</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1912,23 +1906,23 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>אני לא שווה כלום.</t>
+          <t>הלוואי שהייתי מישהו אחר.</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1072.666666666667</v>
+        <v>1308.75</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>recordNum1_sentence19_m9_d13_h8_m40_s9.wav</t>
+          <t>recordNum1_sentence18_m9_d13_h8_m42_s9.wav</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -1984,39 +1978,39 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0.683558464050293</v>
+        <v>1.965269565582275</v>
       </c>
       <c r="J19" t="n">
-        <v>1632808449.251902</v>
+        <v>1635840367.027575</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>אני חושב שאני מכוער.</t>
+          <t>שתיתי משהו חם הבוקר.</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>1528.979166666667</v>
+        <v>1283.395833333333</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>recordNum1_sentence59_m9_d13_h8_m41_s9.wav</t>
+          <t>recordNum1_sentence88_m9_d13_h8_m37_s0.wav</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2056,57 +2050,51 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>not_catch</t>
-        </is>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0.9884703159332275</v>
+        <v>3.25999903678894</v>
       </c>
       <c r="J20" t="n">
-        <v>1632808451.531081</v>
+        <v>1635840367.027575</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>אני מאוכזב מהבחירות שלי.</t>
+          <t>שתיתי משהו חם הבוקר.</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>1045.729166666667</v>
+        <v>1283.395833333333</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>recordNum1_sentence7_m9_d13_h8_m41_s53.wav</t>
+          <t>recordNum1_sentence88_m9_d13_h8_m37_s0.wav</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>7</v>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>odd</t>
-        </is>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
           <t>m</t>
@@ -2144,11 +2132,13 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>catch</t>
-        </is>
-      </c>
-      <c r="E21" t="b">
-        <v>1</v>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>not_catch</t>
+        </is>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -2162,10 +2152,10 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2.788100242614746</v>
+        <v>0.9559435844421387</v>
       </c>
       <c r="J21" t="n">
-        <v>1632808451.531081</v>
+        <v>1635840373.34092</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2188,7 +2178,11 @@
       <c r="O21" t="n">
         <v>7</v>
       </c>
-      <c r="P21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
       <c r="Q21" t="inlineStr">
         <is>
           <t>m</t>
@@ -2242,39 +2236,39 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0.8209586143493652</v>
+        <v>1.652787208557129</v>
       </c>
       <c r="J22" t="n">
-        <v>1632808456.194618</v>
+        <v>1635840377.587283</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>איבדתי עניין באנשים.</t>
+          <t>שתיתי משהו חם הבוקר.</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>1324.583333333333</v>
+        <v>1283.395833333333</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>recordNum1_sentence57_m9_d13_h8_m41_s3.wav</t>
+          <t>recordNum1_sentence88_m9_d13_h8_m37_s0.wav</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2330,39 +2324,39 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1.180517911911011</v>
+        <v>0.8291115760803223</v>
       </c>
       <c r="J23" t="n">
-        <v>1632808458.642889</v>
+        <v>1635840382.858925</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>אני רוצה לנקות את הבית.</t>
+          <t>אני מאכזב את כולם.</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>1072.666666666667</v>
+        <v>1612.9375</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>recordNum1_sentence103_m9_d13_h8_m36_s40.wav</t>
+          <t>recordNum1_sentence62_m9_d13_h8_m41_s14.wav</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -2402,11 +2396,13 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>catch</t>
-        </is>
-      </c>
-      <c r="E24" t="b">
-        <v>0</v>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>not_catch</t>
+        </is>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -2416,14 +2412,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>16.3493230342865</v>
+        <v>3.444425344467163</v>
       </c>
       <c r="J24" t="n">
-        <v>1632808458.642889</v>
+        <v>1635840386.444405</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2432,21 +2428,25 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>אני לא שווה כלום.</t>
+          <t>נמאס לי לחשוב על זה.</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>1072.666666666667</v>
+        <v>749.4375</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>recordNum1_sentence19_m9_d13_h8_m40_s9.wav</t>
+          <t>recordNum1_sentence40_m9_d13_h8_m40_s37.wav</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>19</v>
-      </c>
-      <c r="P24" t="inlineStr"/>
+        <v>40</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
       <c r="Q24" t="inlineStr">
         <is>
           <t>m</t>
@@ -2484,13 +2484,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>not_catch</t>
-        </is>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -2504,10 +2502,10 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0.7847526073455811</v>
+        <v>4.620442628860474</v>
       </c>
       <c r="J25" t="n">
-        <v>1632808476.758993</v>
+        <v>1635840386.444405</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2516,25 +2514,21 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>אני לא מרגיש דבר.</t>
+          <t>נמאס לי לחשוב על זה.</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>1213.6875</v>
+        <v>749.4375</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>recordNum1_sentence36_m9_d13_h8_m43_s20.wav</t>
+          <t>recordNum1_sentence40_m9_d13_h8_m40_s37.wav</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>36</v>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>even</t>
-        </is>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
           <t>m</t>
@@ -2592,31 +2586,31 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0.6175448894500732</v>
+        <v>0.7953534126281738</v>
       </c>
       <c r="J26" t="n">
-        <v>1632808479.166292</v>
+        <v>1635840394.284842</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>אני לא שווה כלום.</t>
+          <t>איפה החניתי את האוטו?</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>1072.666666666667</v>
+        <v>1213.6875</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>recordNum1_sentence19_m9_d13_h8_m40_s9.wav</t>
+          <t>recordNum1_sentence75_m9_d13_h8_m38_s17.wav</t>
         </is>
       </c>
       <c r="O26" t="n">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
@@ -2680,31 +2674,31 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1.375095129013062</v>
+        <v>0.8542938232421875</v>
       </c>
       <c r="J27" t="n">
-        <v>1632808481.864279</v>
+        <v>1635840398.802304</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>אני חושב שאני מכוער.</t>
+          <t>אני יושב מול מחשב.</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>1528.979166666667</v>
+        <v>1714.354166666667</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>recordNum1_sentence59_m9_d13_h8_m41_s9.wav</t>
+          <t>recordNum1_sentence73_m9_d13_h8_m33_s18.wav</t>
         </is>
       </c>
       <c r="O27" t="n">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -2764,14 +2758,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0.6618108749389648</v>
+        <v>0.6499483585357666</v>
       </c>
       <c r="J28" t="n">
-        <v>1632808484.98562</v>
+        <v>1635840402.734647</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2780,23 +2774,23 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>אני רוצה לראות סרט.</t>
+          <t>אני רוצה לנקות את הבית.</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>1191.5</v>
+        <v>1072.666666666667</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>recordNum1_sentence110_m9_d13_h8_m38_s40.wav</t>
+          <t>recordNum1_sentence103_m9_d13_h8_m36_s40.wav</t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -2836,13 +2830,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>not_catch</t>
-        </is>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -2856,10 +2848,10 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1.005591154098511</v>
+        <v>2.578232288360596</v>
       </c>
       <c r="J29" t="n">
-        <v>1632808487.418863</v>
+        <v>1635840402.734647</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2868,25 +2860,21 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>בא לי לשתות קפה.</t>
+          <t>איפה החניתי את האוטו?</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>1223.1875</v>
+        <v>1213.6875</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>recordNum1_sentence78_m9_d13_h8_m35_s10.wav</t>
+          <t>recordNum1_sentence75_m9_d13_h8_m38_s17.wav</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>78</v>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>odd</t>
-        </is>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
           <t>m</t>
@@ -2944,10 +2932,10 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>13.65497183799744</v>
+        <v>11.39660382270813</v>
       </c>
       <c r="J30" t="n">
-        <v>1632808490.02476</v>
+        <v>1635840408.532263</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2956,19 +2944,19 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>אני מאוכזב מהבחירות שלי.</t>
+          <t>אני לא מרגיש דבר.</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>1045.729166666667</v>
+        <v>1213.6875</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>recordNum1_sentence7_m9_d13_h8_m41_s53.wav</t>
+          <t>recordNum1_sentence36_m9_d13_h8_m43_s20.wav</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
@@ -3032,31 +3020,31 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2.103458166122437</v>
+        <v>6.597076177597046</v>
       </c>
       <c r="J31" t="n">
-        <v>1632808505.695985</v>
+        <v>1635840423.24381</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>יש לי מטען לפלאפון.</t>
+          <t>הלוואי שהייתי מישהו אחר.</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>1470.354166666667</v>
+        <v>1308.75</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>recordNum1_sentence101_m9_d13_h8_m35_s16.wav</t>
+          <t>recordNum1_sentence18_m9_d13_h8_m42_s9.wav</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -3112,39 +3100,39 @@
         <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0.7273910045623779</v>
+        <v>0.9958431720733643</v>
       </c>
       <c r="J32" t="n">
-        <v>1632808509.423619</v>
+        <v>1635840432.892873</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>אני רוצה לנקות את הבית.</t>
+          <t>אני מאוכזב מהבחירות שלי.</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>1072.666666666667</v>
+        <v>1045.729166666667</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>recordNum1_sentence103_m9_d13_h8_m36_s40.wav</t>
+          <t>recordNum1_sentence7_m9_d13_h8_m41_s53.wav</t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
@@ -3204,57 +3192,233 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>1.984800338745117</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1635840437.639777</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>אני צריך לבדוק את המייל.</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>1744.458333333333</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>recordNum1_sentence100_m9_d13_h8_m34_s45.wav</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
+        <v>100</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>odd</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Real Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>DIGIT_PRE</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>not_catch</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>2.6855788230896</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1635840443.242592</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>אני מאכזב את כולם.</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>1612.9375</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>recordNum1_sentence62_m9_d13_h8_m41_s14.wav</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>62</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>odd</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Real Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DIGIT_PRE</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>not_catch</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
           <t>r</t>
         </is>
       </c>
-      <c r="I33" t="n">
-        <v>0.5683813095092773</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1632808511.958261</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>ntr</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>מה אני אלבש היום?</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1246.958333333333</v>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>recordNum1_sentence92_m9_d13_h8_m33_s37.wav</t>
-        </is>
-      </c>
-      <c r="O33" t="n">
-        <v>92</v>
-      </c>
-      <c r="P33" t="inlineStr">
+      <c r="I35" t="n">
+        <v>1.588320732116699</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1635840448.684577</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>נמאס לי לחשוב על זה.</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>749.4375</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>recordNum1_sentence40_m9_d13_h8_m40_s37.wav</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>40</v>
+      </c>
+      <c r="P35" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="Q35" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr">
+      <c r="T35" t="inlineStr">
         <is>
           <t>Real Trial</t>
         </is>

--- a/Data/Subject_500/DIGIT_PRE_session-1_data.xlsx
+++ b/Data/Subject_500/DIGIT_PRE_session-1_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,22 +50,89 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -504,10 +571,10 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.4669127464294434</v>
+        <v>0.7308552265167236</v>
       </c>
       <c r="J2" t="n">
-        <v>1635840299.678905</v>
+        <v>1637134865.407097</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -516,19 +583,19 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>שתיתי משהו חם הבוקר.</t>
+          <t>הלילה אלך לישון מוקדם.</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1283.395833333333</v>
+        <v>1639.895833333333</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>recordNum1_sentence88_m9_d13_h8_m37_s0.wav</t>
+          <t>recordNum1_sentence83_m9_d13_h8_m36_s48.wav</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -542,7 +609,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -592,10 +659,10 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.3418748378753662</v>
+        <v>18.45155906677246</v>
       </c>
       <c r="J3" t="n">
-        <v>1635840303.666225</v>
+        <v>1637134868.171057</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -630,7 +697,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -680,10 +747,10 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.455355167388916</v>
+        <v>0.8996565341949463</v>
       </c>
       <c r="J4" t="n">
-        <v>1635840307.601449</v>
+        <v>1637134888.451413</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -692,19 +759,19 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>שתיתי משהו חם הבוקר.</t>
+          <t>אני צריך לעשות קניות.</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>1283.395833333333</v>
+        <v>1007.708333333333</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>recordNum1_sentence88_m9_d13_h8_m37_s0.wav</t>
+          <t>recordNum1_sentence90_m9_d13_h8_m36_s24.wav</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -718,7 +785,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -768,10 +835,10 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.6501832008361816</v>
+        <v>0.2144124507904053</v>
       </c>
       <c r="J5" t="n">
-        <v>1635840312.110635</v>
+        <v>1637134891.561164</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -780,19 +847,19 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>אני צריך לבדוק את המייל.</t>
+          <t>אני תושב ישראל.</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>1744.458333333333</v>
+        <v>1387.958333333333</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>recordNum1_sentence100_m9_d13_h8_m34_s45.wav</t>
+          <t>recordNum1_sentence79_m9_d13_h8_m34_s17.wav</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -806,7 +873,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -856,10 +923,10 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.6889958381652832</v>
+        <v>0.4405124187469482</v>
       </c>
       <c r="J6" t="n">
-        <v>1635840316.784835</v>
+        <v>1637134893.985485</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -868,19 +935,19 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>אני יושב מול מחשב.</t>
+          <t>אני תושב ישראל.</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>1714.354166666667</v>
+        <v>1387.958333333333</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>recordNum1_sentence73_m9_d13_h8_m33_s18.wav</t>
+          <t>recordNum1_sentence79_m9_d13_h8_m34_s17.wav</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -894,7 +961,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -944,10 +1011,10 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.6671597957611084</v>
+        <v>2.042956352233887</v>
       </c>
       <c r="J7" t="n">
-        <v>1635840320.693637</v>
+        <v>1637134896.136648</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -956,19 +1023,19 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>איפה החניתי את האוטו?</t>
+          <t>אני מבין עברית.</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>1213.6875</v>
+        <v>1191.5</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>recordNum1_sentence75_m9_d13_h8_m38_s17.wav</t>
+          <t>recordNum1_sentence74_m9_d13_h8_m35_s4.wav</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -982,7 +1049,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1024,18 +1091,18 @@
         <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.7884955406188965</v>
+        <v>2.580055236816406</v>
       </c>
       <c r="J8" t="n">
-        <v>1635840324.452325</v>
+        <v>1637134900.963341</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1044,19 +1111,19 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>אני רוצה לנקות את הבית.</t>
+          <t>איפה החניתי את האוטו?</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>1072.666666666667</v>
+        <v>1213.6875</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>recordNum1_sentence103_m9_d13_h8_m36_s40.wav</t>
+          <t>recordNum1_sentence75_m9_d13_h8_m38_s17.wav</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -1070,7 +1137,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1118,10 +1185,10 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>3.97200345993042</v>
+        <v>12.74917769432068</v>
       </c>
       <c r="J9" t="n">
-        <v>1635840324.452325</v>
+        <v>1637134900.963341</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1130,19 +1197,19 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>אני רוצה לנקות את הבית.</t>
+          <t>איפה החניתי את האוטו?</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>1072.666666666667</v>
+        <v>1213.6875</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>recordNum1_sentence103_m9_d13_h8_m36_s40.wav</t>
+          <t>recordNum1_sentence75_m9_d13_h8_m38_s17.wav</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
@@ -1152,7 +1219,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1194,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1202,10 +1269,10 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.9193942546844482</v>
+        <v>5.467657327651978</v>
       </c>
       <c r="J10" t="n">
-        <v>1635840332.144512</v>
+        <v>1637134915.242663</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1214,23 +1281,23 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>אני יושב מול מחשב.</t>
+          <t>אני צריך לעשות קניות.</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>1714.354166666667</v>
+        <v>1007.708333333333</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>recordNum1_sentence73_m9_d13_h8_m33_s18.wav</t>
+          <t>recordNum1_sentence90_m9_d13_h8_m36_s24.wav</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1240,7 +1307,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1288,10 +1355,10 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2.504327774047852</v>
+        <v>12.76497721672058</v>
       </c>
       <c r="J11" t="n">
-        <v>1635840332.144512</v>
+        <v>1637134915.242663</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1300,19 +1367,19 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>אני יושב מול מחשב.</t>
+          <t>אני צריך לעשות קניות.</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>1714.354166666667</v>
+        <v>1007.708333333333</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>recordNum1_sentence73_m9_d13_h8_m33_s18.wav</t>
+          <t>recordNum1_sentence90_m9_d13_h8_m36_s24.wav</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
@@ -1322,7 +1389,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1368,14 +1435,14 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0.948390007019043</v>
+        <v>0.01621246337890625</v>
       </c>
       <c r="J12" t="n">
-        <v>1635840338.380436</v>
+        <v>1637135037.402722</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1384,23 +1451,23 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>אני יושב מול מחשב.</t>
+          <t>אני תושב ישראל.</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>1714.354166666667</v>
+        <v>1387.958333333333</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>recordNum1_sentence73_m9_d13_h8_m33_s18.wav</t>
+          <t>recordNum1_sentence79_m9_d13_h8_m34_s17.wav</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1410,7 +1477,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1452,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1460,10 +1527,10 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0.5405802726745605</v>
+        <v>0.6185786724090576</v>
       </c>
       <c r="J13" t="n">
-        <v>1635840342.548259</v>
+        <v>1637135038.932254</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1472,23 +1539,23 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>איפה החניתי את האוטו?</t>
+          <t>אני צריך לעשות קניות.</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1213.6875</v>
+        <v>1007.708333333333</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>recordNum1_sentence75_m9_d13_h8_m38_s17.wav</t>
+          <t>recordNum1_sentence90_m9_d13_h8_m36_s24.wav</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1498,7 +1565,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1540,27 +1607,27 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0.7624845504760742</v>
+        <v>0.2870771884918213</v>
       </c>
       <c r="J14" t="n">
-        <v>1635840346.310356</v>
+        <v>1637135041.283829</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>אני לא מרגיש דבר.</t>
+          <t>איפה החניתי את האוטו?</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -1568,11 +1635,11 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>recordNum1_sentence36_m9_d13_h8_m43_s20.wav</t>
+          <t>recordNum1_sentence75_m9_d13_h8_m38_s17.wav</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1586,7 +1653,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1628,18 +1695,18 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0.8583371639251709</v>
+        <v>1.473507404327393</v>
       </c>
       <c r="J15" t="n">
-        <v>1635840350.150503</v>
+        <v>1637135043.283183</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1648,19 +1715,19 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>אני רוצה לנקות את הבית.</t>
+          <t>אני מבין עברית.</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>1072.666666666667</v>
+        <v>1191.5</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>recordNum1_sentence103_m9_d13_h8_m36_s40.wav</t>
+          <t>recordNum1_sentence74_m9_d13_h8_m35_s4.wav</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -1674,7 +1741,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1704,17 +1771,19 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>catch</t>
-        </is>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>not_catch</t>
+        </is>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1722,33 +1791,37 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>3.34632682800293</v>
+        <v>0.471062183380127</v>
       </c>
       <c r="J16" t="n">
-        <v>1635840350.150503</v>
+        <v>1637135046.45413</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>אני רוצה לנקות את הבית.</t>
+          <t>נמאס לי מהכל.</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>1072.666666666667</v>
+        <v>1191.5</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>recordNum1_sentence103_m9_d13_h8_m36_s40.wav</t>
+          <t>recordNum1_sentence67_m9_d13_h8_m41_s34.wav</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>103</v>
-      </c>
-      <c r="P16" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>odd</t>
+        </is>
+      </c>
       <c r="Q16" t="inlineStr">
         <is>
           <t>m</t>
@@ -1756,7 +1829,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -1786,19 +1859,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>not_catch</t>
-        </is>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1806,10 +1877,10 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2.343891859054565</v>
+        <v>1.732970237731934</v>
       </c>
       <c r="J17" t="n">
-        <v>1635840357.248276</v>
+        <v>1637135046.45413</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1818,25 +1889,21 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>אני צריך לבדוק את המייל.</t>
+          <t>איפה החניתי את האוטו?</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1744.458333333333</v>
+        <v>1213.6875</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>recordNum1_sentence100_m9_d13_h8_m34_s45.wav</t>
+          <t>recordNum1_sentence75_m9_d13_h8_m38_s17.wav</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>100</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>even</t>
-        </is>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
           <t>m</t>
@@ -1844,7 +1911,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -1890,39 +1957,39 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0.8285338878631592</v>
+        <v>56.71131348609924</v>
       </c>
       <c r="J18" t="n">
-        <v>1635840362.908308</v>
+        <v>1637135050.34307</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>הלוואי שהייתי מישהו אחר.</t>
+          <t>הלילה אלך לישון מוקדם.</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1308.75</v>
+        <v>1639.895833333333</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>recordNum1_sentence18_m9_d13_h8_m42_s9.wav</t>
+          <t>recordNum1_sentence83_m9_d13_h8_m36_s48.wav</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -1932,7 +1999,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -1974,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1982,35 +2049,35 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1.965269565582275</v>
+        <v>0.307661771774292</v>
       </c>
       <c r="J19" t="n">
-        <v>1635840367.027575</v>
+        <v>1637135108.921435</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>שתיתי משהו חם הבוקר.</t>
+          <t>אני חסר תועלת.</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>1283.395833333333</v>
+        <v>1343.604166666667</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>recordNum1_sentence88_m9_d13_h8_m37_s0.wav</t>
+          <t>recordNum1_sentence65_m9_d13_h8_m41_s20.wav</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2020,7 +2087,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2050,17 +2117,19 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>catch</t>
-        </is>
-      </c>
-      <c r="E20" t="b">
-        <v>0</v>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>not_catch</t>
+        </is>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2068,33 +2137,37 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>3.25999903678894</v>
+        <v>0.3324761390686035</v>
       </c>
       <c r="J20" t="n">
-        <v>1635840367.027575</v>
+        <v>1637135110.988661</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>שתיתי משהו חם הבוקר.</t>
+          <t>אני לא יכול להמשיך.</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>1283.395833333333</v>
+        <v>1239.020833333333</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>recordNum1_sentence88_m9_d13_h8_m37_s0.wav</t>
+          <t>recordNum1_sentence4_m9_d13_h8_m41_s42.wav</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>88</v>
-      </c>
-      <c r="P20" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
       <c r="Q20" t="inlineStr">
         <is>
           <t>m</t>
@@ -2102,7 +2175,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -2144,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2152,35 +2225,35 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0.9559435844421387</v>
+        <v>0.7669486999511719</v>
       </c>
       <c r="J21" t="n">
-        <v>1635840373.34092</v>
+        <v>1637135113.053211</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>אני מאוכזב מהבחירות שלי.</t>
+          <t>איפה החניתי את האוטו?</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>1045.729166666667</v>
+        <v>1213.6875</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>recordNum1_sentence7_m9_d13_h8_m41_s53.wav</t>
+          <t>recordNum1_sentence75_m9_d13_h8_m38_s17.wav</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2190,7 +2263,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -2240,10 +2313,10 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1.652787208557129</v>
+        <v>0.3224170207977295</v>
       </c>
       <c r="J22" t="n">
-        <v>1635840377.587283</v>
+        <v>1637135115.531778</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2252,19 +2325,19 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>שתיתי משהו חם הבוקר.</t>
+          <t>אני מבין עברית.</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>1283.395833333333</v>
+        <v>1191.5</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>recordNum1_sentence88_m9_d13_h8_m37_s0.wav</t>
+          <t>recordNum1_sentence74_m9_d13_h8_m35_s4.wav</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
@@ -2278,7 +2351,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -2308,13 +2381,11 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>not_catch</t>
-        </is>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -2324,41 +2395,37 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0.8291115760803223</v>
+        <v>6.709944248199463</v>
       </c>
       <c r="J23" t="n">
-        <v>1635840382.858925</v>
+        <v>1637135115.531778</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>אני מאכזב את כולם.</t>
+          <t>אני מבין עברית.</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>1612.9375</v>
+        <v>1191.5</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>recordNum1_sentence62_m9_d13_h8_m41_s14.wav</t>
+          <t>recordNum1_sentence74_m9_d13_h8_m35_s4.wav</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>62</v>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>odd</t>
-        </is>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
           <t>m</t>
@@ -2366,7 +2433,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -2408,7 +2475,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2416,10 +2483,10 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3.444425344467163</v>
+        <v>0.2576286792755127</v>
       </c>
       <c r="J24" t="n">
-        <v>1635840386.444405</v>
+        <v>1637135124.235445</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2428,23 +2495,23 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>נמאס לי לחשוב על זה.</t>
+          <t>אני לא מצליח לסיים שום דבר.</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>749.4375</v>
+        <v>1470.354166666667</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>recordNum1_sentence40_m9_d13_h8_m40_s37.wav</t>
+          <t>recordNum1_sentence28_m9_d13_h8_m42_s40.wav</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -2454,7 +2521,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -2484,17 +2551,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>catch</t>
-        </is>
-      </c>
-      <c r="E25" t="b">
-        <v>1</v>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>not_catch</t>
+        </is>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2502,33 +2571,37 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>4.620442628860474</v>
+        <v>0.2490127086639404</v>
       </c>
       <c r="J25" t="n">
-        <v>1635840386.444405</v>
+        <v>1637135126.399764</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>נמאס לי לחשוב על זה.</t>
+          <t>אני תושב ישראל.</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>749.4375</v>
+        <v>1387.958333333333</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>recordNum1_sentence40_m9_d13_h8_m40_s37.wav</t>
+          <t>recordNum1_sentence79_m9_d13_h8_m34_s17.wav</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>40</v>
-      </c>
-      <c r="P25" t="inlineStr"/>
+        <v>79</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>odd</t>
+        </is>
+      </c>
       <c r="Q25" t="inlineStr">
         <is>
           <t>m</t>
@@ -2536,7 +2609,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -2578,39 +2651,39 @@
         <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0.7953534126281738</v>
+        <v>0.1392567157745361</v>
       </c>
       <c r="J26" t="n">
-        <v>1635840394.284842</v>
+        <v>1637135128.796242</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>איפה החניתי את האוטו?</t>
+          <t>אני אף פעם לא אצליח.</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>1213.6875</v>
+        <v>1630.395833333333</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>recordNum1_sentence75_m9_d13_h8_m38_s17.wav</t>
+          <t>recordNum1_sentence22_m9_d13_h8_m42_s21.wav</t>
         </is>
       </c>
       <c r="O26" t="n">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
@@ -2624,7 +2697,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -2666,39 +2739,39 @@
         <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0.8542938232421875</v>
+        <v>0.280167818069458</v>
       </c>
       <c r="J27" t="n">
-        <v>1635840398.802304</v>
+        <v>1637135130.634115</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>אני יושב מול מחשב.</t>
+          <t>נמאס לי מהכל.</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>1714.354166666667</v>
+        <v>1191.5</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>recordNum1_sentence73_m9_d13_h8_m33_s18.wav</t>
+          <t>recordNum1_sentence67_m9_d13_h8_m41_s34.wav</t>
         </is>
       </c>
       <c r="O27" t="n">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -2712,7 +2785,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2742,13 +2815,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>not_catch</t>
-        </is>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -2758,41 +2829,37 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0.6499483585357666</v>
+        <v>0.9128906726837158</v>
       </c>
       <c r="J28" t="n">
-        <v>1635840402.734647</v>
+        <v>1637135130.634115</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>אני רוצה לנקות את הבית.</t>
+          <t>נמאס לי מהכל.</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>1072.666666666667</v>
+        <v>1191.5</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>recordNum1_sentence103_m9_d13_h8_m36_s40.wav</t>
+          <t>recordNum1_sentence67_m9_d13_h8_m41_s34.wav</t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>103</v>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>odd</t>
-        </is>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
           <t>m</t>
@@ -2800,7 +2867,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2830,51 +2897,57 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>catch</t>
-        </is>
-      </c>
-      <c r="E29" t="b">
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>not_catch</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
         <v>0</v>
       </c>
-      <c r="F29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2.578232288360596</v>
+        <v>0.6164131164550781</v>
       </c>
       <c r="J29" t="n">
-        <v>1635840402.734647</v>
+        <v>1637135133.40729</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>איפה החניתי את האוטו?</t>
+          <t>אני חסר תועלת.</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>1213.6875</v>
+        <v>1343.604166666667</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>recordNum1_sentence75_m9_d13_h8_m38_s17.wav</t>
+          <t>recordNum1_sentence65_m9_d13_h8_m41_s20.wav</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>75</v>
-      </c>
-      <c r="P29" t="inlineStr"/>
+        <v>65</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>odd</t>
+        </is>
+      </c>
       <c r="Q29" t="inlineStr">
         <is>
           <t>m</t>
@@ -2882,7 +2955,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2924,39 +2997,39 @@
         <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>11.39660382270813</v>
+        <v>0.3271493911743164</v>
       </c>
       <c r="J30" t="n">
-        <v>1635840408.532263</v>
+        <v>1637135136.181702</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>אני לא מרגיש דבר.</t>
+          <t>הלילה אלך לישון מוקדם.</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>1213.6875</v>
+        <v>1639.895833333333</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>recordNum1_sentence36_m9_d13_h8_m43_s20.wav</t>
+          <t>recordNum1_sentence83_m9_d13_h8_m36_s48.wav</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
@@ -2970,7 +3043,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -3020,10 +3093,10 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>6.597076177597046</v>
+        <v>152.8283140659332</v>
       </c>
       <c r="J31" t="n">
-        <v>1635840423.24381</v>
+        <v>1637135138.268038</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3032,19 +3105,19 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>הלוואי שהייתי מישהו אחר.</t>
+          <t>אני לא יכול להמשיך.</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>1308.75</v>
+        <v>1239.020833333333</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>recordNum1_sentence18_m9_d13_h8_m42_s9.wav</t>
+          <t>recordNum1_sentence4_m9_d13_h8_m41_s42.wav</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -3058,7 +3131,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -3088,13 +3161,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>not_catch</t>
-        </is>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
@@ -3104,41 +3175,37 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0.9958431720733643</v>
+        <v>155.7484376430511</v>
       </c>
       <c r="J32" t="n">
-        <v>1635840432.892873</v>
+        <v>1637135138.268038</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>אני מאוכזב מהבחירות שלי.</t>
+          <t>הלילה אלך לישון מוקדם.</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>1045.729166666667</v>
+        <v>1639.895833333333</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>recordNum1_sentence7_m9_d13_h8_m41_s53.wav</t>
+          <t>recordNum1_sentence83_m9_d13_h8_m36_s48.wav</t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>7</v>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>even</t>
-        </is>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
           <t>m</t>
@@ -3146,7 +3213,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -3188,39 +3255,39 @@
         <v>1</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1.984800338745117</v>
+        <v>1.173729658126831</v>
       </c>
       <c r="J33" t="n">
-        <v>1635840437.639777</v>
+        <v>1637135296.031926</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>אני צריך לבדוק את המייל.</t>
+          <t>אני לא מצליח לסיים שום דבר.</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>1744.458333333333</v>
+        <v>1470.354166666667</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>recordNum1_sentence100_m9_d13_h8_m34_s45.wav</t>
+          <t>recordNum1_sentence28_m9_d13_h8_m42_s40.wav</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
@@ -3234,7 +3301,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -3280,39 +3347,39 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2.6855788230896</v>
+        <v>1.147846937179565</v>
       </c>
       <c r="J34" t="n">
-        <v>1635840443.242592</v>
+        <v>1637135298.738847</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>אני מאכזב את כולם.</t>
+          <t>אני צריך לעשות קניות.</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>1612.9375</v>
+        <v>1007.708333333333</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>recordNum1_sentence62_m9_d13_h8_m41_s14.wav</t>
+          <t>recordNum1_sentence90_m9_d13_h8_m36_s24.wav</t>
         </is>
       </c>
       <c r="O34" t="n">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -3322,7 +3389,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -3372,10 +3439,10 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1.588320732116699</v>
+        <v>0.4930193424224854</v>
       </c>
       <c r="J35" t="n">
-        <v>1635840448.684577</v>
+        <v>1637135302.044159</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3384,19 +3451,19 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>נמאס לי לחשוב על זה.</t>
+          <t>אני אף פעם לא אצליח.</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>749.4375</v>
+        <v>1630.395833333333</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>recordNum1_sentence40_m9_d13_h8_m40_s37.wav</t>
+          <t>recordNum1_sentence22_m9_d13_h8_m42_s21.wav</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
@@ -3410,7 +3477,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -3425,6 +3492,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Data/Subject_500/DIGIT_PRE_session-1_data.xlsx
+++ b/Data/Subject_500/DIGIT_PRE_session-1_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,89 +50,22 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -563,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -571,10 +504,10 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.7308552265167236</v>
+        <v>0.9970822334289551</v>
       </c>
       <c r="J2" t="n">
-        <v>1637134865.407097</v>
+        <v>1643800220.303746</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -583,23 +516,23 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>הלילה אלך לישון מוקדם.</t>
+          <t>יש לי פגישה בקרוב.</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1639.895833333333</v>
+        <v>1456.104166666667</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>recordNum1_sentence83_m9_d13_h8_m36_s48.wav</t>
+          <t>recordNum1_sentence95_m9_d13_h8_m37_s30.wav</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -609,7 +542,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -655,14 +588,14 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>18.45155906677246</v>
+        <v>0.5367903709411621</v>
       </c>
       <c r="J3" t="n">
-        <v>1637134868.171057</v>
+        <v>1643800223.718718</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -671,23 +604,23 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>איפה החניתי את האוטו?</t>
+          <t>אני צריך לעשות כביסה.</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1213.6875</v>
+        <v>1612.9375</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>recordNum1_sentence75_m9_d13_h8_m38_s17.wav</t>
+          <t>recordNum1_sentence97_m9_d13_h8_m33_s44.wav</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -697,7 +630,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -747,10 +680,10 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.8996565341949463</v>
+        <v>0.7400381565093994</v>
       </c>
       <c r="J4" t="n">
-        <v>1637134888.451413</v>
+        <v>1643800226.300541</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -759,19 +692,19 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>אני צריך לעשות קניות.</t>
+          <t>אני בתוך בניין.</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>1007.708333333333</v>
+        <v>1239.020833333333</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>recordNum1_sentence90_m9_d13_h8_m36_s24.wav</t>
+          <t>recordNum1_sentence71_m9_d13_h8_m34_s59.wav</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -785,7 +718,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -835,10 +768,10 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.2144124507904053</v>
+        <v>0.7709934711456299</v>
       </c>
       <c r="J5" t="n">
-        <v>1637134891.561164</v>
+        <v>1643800229.301272</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -847,19 +780,19 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>אני תושב ישראל.</t>
+          <t>יש לי פגישה בקרוב.</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>1387.958333333333</v>
+        <v>1456.104166666667</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>recordNum1_sentence79_m9_d13_h8_m34_s17.wav</t>
+          <t>recordNum1_sentence95_m9_d13_h8_m37_s30.wav</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -873,7 +806,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -915,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -923,10 +856,10 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.4405124187469482</v>
+        <v>1.684704780578613</v>
       </c>
       <c r="J6" t="n">
-        <v>1637134893.985485</v>
+        <v>1643800232.489402</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -935,23 +868,23 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>אני תושב ישראל.</t>
+          <t>אני צריך לעשות כביסה.</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>1387.958333333333</v>
+        <v>1612.9375</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>recordNum1_sentence79_m9_d13_h8_m34_s17.wav</t>
+          <t>recordNum1_sentence97_m9_d13_h8_m33_s44.wav</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -961,7 +894,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1011,10 +944,10 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2.042956352233887</v>
+        <v>0.920501708984375</v>
       </c>
       <c r="J7" t="n">
-        <v>1637134896.136648</v>
+        <v>1643800236.237172</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1023,19 +956,19 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>אני מבין עברית.</t>
+          <t>יש לי התראה בפלאפון.</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>1191.5</v>
+        <v>1559.083333333333</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>recordNum1_sentence74_m9_d13_h8_m35_s4.wav</t>
+          <t>recordNum1_sentence109_m9_d13_h8_m33_s52.wav</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -1049,7 +982,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1091,18 +1024,18 @@
         <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2.580055236816406</v>
+        <v>0.5547530651092529</v>
       </c>
       <c r="J8" t="n">
-        <v>1637134900.963341</v>
+        <v>1643800250.723653</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1111,19 +1044,19 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>איפה החניתי את האוטו?</t>
+          <t>אני בתוך בניין.</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>1213.6875</v>
+        <v>1239.020833333333</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>recordNum1_sentence75_m9_d13_h8_m38_s17.wav</t>
+          <t>recordNum1_sentence71_m9_d13_h8_m34_s59.wav</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -1137,7 +1070,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1185,10 +1118,10 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>12.74917769432068</v>
+        <v>3.894381999969482</v>
       </c>
       <c r="J9" t="n">
-        <v>1637134900.963341</v>
+        <v>1643800250.723653</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1197,19 +1130,19 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>איפה החניתי את האוטו?</t>
+          <t>אני בתוך בניין.</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>1213.6875</v>
+        <v>1239.020833333333</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>recordNum1_sentence75_m9_d13_h8_m38_s17.wav</t>
+          <t>recordNum1_sentence71_m9_d13_h8_m34_s59.wav</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
@@ -1219,7 +1152,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1261,18 +1194,18 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>5.467657327651978</v>
+        <v>1.370780467987061</v>
       </c>
       <c r="J10" t="n">
-        <v>1637134915.242663</v>
+        <v>1643800256.335002</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1281,19 +1214,19 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>אני צריך לעשות קניות.</t>
+          <t>איפה החניתי את האוטו?</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>1007.708333333333</v>
+        <v>1213.6875</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>recordNum1_sentence90_m9_d13_h8_m36_s24.wav</t>
+          <t>recordNum1_sentence75_m9_d13_h8_m38_s17.wav</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1307,7 +1240,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1355,10 +1288,10 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>12.76497721672058</v>
+        <v>3.021884918212891</v>
       </c>
       <c r="J11" t="n">
-        <v>1637134915.242663</v>
+        <v>1643800256.335002</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1367,19 +1300,19 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>אני צריך לעשות קניות.</t>
+          <t>איפה החניתי את האוטו?</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>1007.708333333333</v>
+        <v>1213.6875</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>recordNum1_sentence90_m9_d13_h8_m36_s24.wav</t>
+          <t>recordNum1_sentence75_m9_d13_h8_m38_s17.wav</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
@@ -1389,7 +1322,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1439,10 +1372,10 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0.01621246337890625</v>
+        <v>449.662905216217</v>
       </c>
       <c r="J12" t="n">
-        <v>1637135037.402722</v>
+        <v>1643800275.353555</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1451,19 +1384,19 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>אני תושב ישראל.</t>
+          <t>יש לי התראה בפלאפון.</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>1387.958333333333</v>
+        <v>1559.083333333333</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>recordNum1_sentence79_m9_d13_h8_m34_s17.wav</t>
+          <t>recordNum1_sentence109_m9_d13_h8_m33_s52.wav</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1477,7 +1410,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1523,14 +1456,14 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0.6185786724090576</v>
+        <v>6113.589181661606</v>
       </c>
       <c r="J13" t="n">
-        <v>1637135038.932254</v>
+        <v>1643800727.132726</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1539,23 +1472,23 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>אני צריך לעשות קניות.</t>
+          <t>אני צריך לעשות כביסה.</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1007.708333333333</v>
+        <v>1612.9375</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>recordNum1_sentence90_m9_d13_h8_m36_s24.wav</t>
+          <t>recordNum1_sentence97_m9_d13_h8_m33_s44.wav</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1565,7 +1498,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1611,14 +1544,14 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0.2870771884918213</v>
+        <v>81.78228902816772</v>
       </c>
       <c r="J14" t="n">
-        <v>1637135041.283829</v>
+        <v>1643806842.466149</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1627,23 +1560,23 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>איפה החניתי את האוטו?</t>
+          <t>אני בתוך בניין.</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>1213.6875</v>
+        <v>1239.020833333333</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>recordNum1_sentence75_m9_d13_h8_m38_s17.wav</t>
+          <t>recordNum1_sentence71_m9_d13_h8_m34_s59.wav</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1653,7 +1586,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1699,14 +1632,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1.473507404327393</v>
+        <v>1.554996013641357</v>
       </c>
       <c r="J15" t="n">
-        <v>1637135043.283183</v>
+        <v>1643806926.21321</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1715,23 +1648,23 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>אני מבין עברית.</t>
+          <t>יש לי פגישה בקרוב.</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>1191.5</v>
+        <v>1456.104166666667</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>recordNum1_sentence74_m9_d13_h8_m35_s4.wav</t>
+          <t>recordNum1_sentence95_m9_d13_h8_m37_s30.wav</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1741,7 +1674,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1783,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1791,10 +1724,10 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0.471062183380127</v>
+        <v>6.975650787353516</v>
       </c>
       <c r="J16" t="n">
-        <v>1637135046.45413</v>
+        <v>1643806929.745213</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1803,23 +1736,23 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>נמאס לי מהכל.</t>
+          <t>אני לא מצליח לסיים שום דבר.</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>1191.5</v>
+        <v>1470.354166666667</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>recordNum1_sentence67_m9_d13_h8_m41_s34.wav</t>
+          <t>recordNum1_sentence28_m9_d13_h8_m42_s40.wav</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1829,7 +1762,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -1863,13 +1796,13 @@
         </is>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1877,31 +1810,31 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1.732970237731934</v>
+        <v>8.74309515953064</v>
       </c>
       <c r="J17" t="n">
-        <v>1637135046.45413</v>
+        <v>1643806929.745213</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>איפה החניתי את האוטו?</t>
+          <t>אני לא מצליח לסיים שום דבר.</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1213.6875</v>
+        <v>1470.354166666667</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>recordNum1_sentence75_m9_d13_h8_m38_s17.wav</t>
+          <t>recordNum1_sentence28_m9_d13_h8_m42_s40.wav</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
@@ -1911,7 +1844,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -1953,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1961,35 +1894,35 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>56.71131348609924</v>
+        <v>0.6521825790405273</v>
       </c>
       <c r="J18" t="n">
-        <v>1637135050.34307</v>
+        <v>1643806940.164481</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>הלילה אלך לישון מוקדם.</t>
+          <t>אני כישלון.</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1639.895833333333</v>
+        <v>1170.916666666667</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>recordNum1_sentence83_m9_d13_h8_m36_s48.wav</t>
+          <t>recordNum1_sentence21_m9_d13_h8_m40_s15.wav</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -1999,7 +1932,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2041,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -2049,10 +1982,10 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0.307661771774292</v>
+        <v>3.177763223648071</v>
       </c>
       <c r="J19" t="n">
-        <v>1637135108.921435</v>
+        <v>1643806942.630702</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2061,23 +1994,23 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>אני חסר תועלת.</t>
+          <t>הלוואי שהייתי מישהו אחר.</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>1343.604166666667</v>
+        <v>1308.75</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>recordNum1_sentence65_m9_d13_h8_m41_s20.wav</t>
+          <t>recordNum1_sentence18_m9_d13_h8_m42_s9.wav</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2087,7 +2020,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2117,13 +2050,11 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>not_catch</t>
-        </is>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -2133,41 +2064,37 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0.3324761390686035</v>
+        <v>5.145514965057373</v>
       </c>
       <c r="J20" t="n">
-        <v>1637135110.988661</v>
+        <v>1643806942.630702</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>אני לא יכול להמשיך.</t>
+          <t>יש לי פגישה בקרוב.</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>1239.020833333333</v>
+        <v>1456.104166666667</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>recordNum1_sentence4_m9_d13_h8_m41_s42.wav</t>
+          <t>recordNum1_sentence95_m9_d13_h8_m37_s30.wav</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>4</v>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>even</t>
-        </is>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
           <t>m</t>
@@ -2175,7 +2102,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -2225,10 +2152,10 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0.7669486999511719</v>
+        <v>2.191534042358398</v>
       </c>
       <c r="J21" t="n">
-        <v>1637135113.053211</v>
+        <v>1643806949.496753</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2263,7 +2190,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -2305,18 +2232,18 @@
         <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0.3224170207977295</v>
+        <v>1.805452585220337</v>
       </c>
       <c r="J22" t="n">
-        <v>1637135115.531778</v>
+        <v>1643806953.434204</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2325,19 +2252,19 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>אני מבין עברית.</t>
+          <t>אני בתוך בניין.</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>1191.5</v>
+        <v>1239.020833333333</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>recordNum1_sentence74_m9_d13_h8_m35_s4.wav</t>
+          <t>recordNum1_sentence71_m9_d13_h8_m34_s59.wav</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
@@ -2351,7 +2278,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -2381,17 +2308,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>catch</t>
-        </is>
-      </c>
-      <c r="E23" t="b">
-        <v>1</v>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>not_catch</t>
+        </is>
       </c>
       <c r="F23" t="n">
         <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2399,33 +2328,37 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>6.709944248199463</v>
+        <v>2.039128303527832</v>
       </c>
       <c r="J23" t="n">
-        <v>1637135115.531778</v>
+        <v>1643806957.385483</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>אני מבין עברית.</t>
+          <t>אני מרגיש חסר אונים.</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>1191.5</v>
+        <v>1639.895833333333</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>recordNum1_sentence74_m9_d13_h8_m35_s4.wav</t>
+          <t>recordNum1_sentence23_m9_d13_h8_m40_s21.wav</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>74</v>
-      </c>
-      <c r="P23" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>odd</t>
+        </is>
+      </c>
       <c r="Q23" t="inlineStr">
         <is>
           <t>m</t>
@@ -2433,7 +2366,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -2483,10 +2416,10 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0.2576286792755127</v>
+        <v>0.02103996276855469</v>
       </c>
       <c r="J24" t="n">
-        <v>1637135124.235445</v>
+        <v>1643806961.006748</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2495,19 +2428,19 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>אני לא מצליח לסיים שום דבר.</t>
+          <t>אני לא שווה כלום.</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>1470.354166666667</v>
+        <v>1072.666666666667</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>recordNum1_sentence28_m9_d13_h8_m42_s40.wav</t>
+          <t>recordNum1_sentence19_m9_d13_h8_m40_s9.wav</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -2521,7 +2454,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -2571,10 +2504,10 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0.2490127086639404</v>
+        <v>0.02436113357543945</v>
       </c>
       <c r="J25" t="n">
-        <v>1637135126.399764</v>
+        <v>1643806963.147483</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2583,19 +2516,19 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>אני תושב ישראל.</t>
+          <t>אני צריך לעשות כביסה.</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>1387.958333333333</v>
+        <v>1612.9375</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>recordNum1_sentence79_m9_d13_h8_m34_s17.wav</t>
+          <t>recordNum1_sentence97_m9_d13_h8_m33_s44.wav</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -2609,7 +2542,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -2651,7 +2584,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2659,10 +2592,10 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0.1392567157745361</v>
+        <v>0.004068374633789062</v>
       </c>
       <c r="J26" t="n">
-        <v>1637135128.796242</v>
+        <v>1643806965.1492</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2671,23 +2604,23 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>אני אף פעם לא אצליח.</t>
+          <t>אני לא מצליח לסיים שום דבר.</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>1630.395833333333</v>
+        <v>1470.354166666667</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>recordNum1_sentence22_m9_d13_h8_m42_s21.wav</t>
+          <t>recordNum1_sentence28_m9_d13_h8_m42_s40.wav</t>
         </is>
       </c>
       <c r="O26" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -2697,7 +2630,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -2747,31 +2680,31 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0.280167818069458</v>
+        <v>0.01140713691711426</v>
       </c>
       <c r="J27" t="n">
-        <v>1637135130.634115</v>
+        <v>1643806967.219436</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>נמאס לי מהכל.</t>
+          <t>יש לי התראה בפלאפון.</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>1191.5</v>
+        <v>1559.083333333333</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>recordNum1_sentence67_m9_d13_h8_m41_s34.wav</t>
+          <t>recordNum1_sentence109_m9_d13_h8_m33_s52.wav</t>
         </is>
       </c>
       <c r="O27" t="n">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -2785,7 +2718,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2819,13 +2752,13 @@
         </is>
       </c>
       <c r="E28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2833,31 +2766,31 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0.9128906726837158</v>
+        <v>95.02085971832275</v>
       </c>
       <c r="J28" t="n">
-        <v>1637135130.634115</v>
+        <v>1643806967.219436</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>נמאס לי מהכל.</t>
+          <t>אני בתוך בניין.</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>1191.5</v>
+        <v>1239.020833333333</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>recordNum1_sentence67_m9_d13_h8_m41_s34.wav</t>
+          <t>recordNum1_sentence71_m9_d13_h8_m34_s59.wav</t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
@@ -2867,7 +2800,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2909,18 +2842,18 @@
         <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0.6164131164550781</v>
+        <v>0.4537825584411621</v>
       </c>
       <c r="J29" t="n">
-        <v>1637135133.40729</v>
+        <v>1643807063.91538</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2929,19 +2862,19 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>אני חסר תועלת.</t>
+          <t>אני כישלון.</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>1343.604166666667</v>
+        <v>1170.916666666667</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>recordNum1_sentence65_m9_d13_h8_m41_s20.wav</t>
+          <t>recordNum1_sentence21_m9_d13_h8_m40_s15.wav</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
@@ -2955,7 +2888,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2997,39 +2930,39 @@
         <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0.3271493911743164</v>
+        <v>0.01900196075439453</v>
       </c>
       <c r="J30" t="n">
-        <v>1637135136.181702</v>
+        <v>1643807066.184151</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>הלילה אלך לישון מוקדם.</t>
+          <t>הלוואי שהייתי מישהו אחר.</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>1639.895833333333</v>
+        <v>1308.75</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>recordNum1_sentence83_m9_d13_h8_m36_s48.wav</t>
+          <t>recordNum1_sentence18_m9_d13_h8_m42_s9.wav</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
@@ -3043,7 +2976,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -3073,13 +3006,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>not_catch</t>
-        </is>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -3093,10 +3024,10 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>152.8283140659332</v>
+        <v>2.031659603118896</v>
       </c>
       <c r="J31" t="n">
-        <v>1637135138.268038</v>
+        <v>1643807066.184151</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3105,25 +3036,21 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>אני לא יכול להמשיך.</t>
+          <t>הלוואי שהייתי מישהו אחר.</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>1239.020833333333</v>
+        <v>1308.75</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>recordNum1_sentence4_m9_d13_h8_m41_s42.wav</t>
+          <t>recordNum1_sentence18_m9_d13_h8_m42_s9.wav</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>4</v>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>even</t>
-        </is>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
           <t>m</t>
@@ -3131,7 +3058,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -3161,11 +3088,13 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>catch</t>
-        </is>
-      </c>
-      <c r="E32" t="b">
-        <v>0</v>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>not_catch</t>
+        </is>
       </c>
       <c r="F32" t="n">
         <v>1</v>
@@ -3179,10 +3108,10 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>155.7484376430511</v>
+        <v>1.400226831436157</v>
       </c>
       <c r="J32" t="n">
-        <v>1637135138.268038</v>
+        <v>1643807070.177929</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3191,21 +3120,25 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>הלילה אלך לישון מוקדם.</t>
+          <t>יש לי פגישה בקרוב.</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>1639.895833333333</v>
+        <v>1456.104166666667</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>recordNum1_sentence83_m9_d13_h8_m36_s48.wav</t>
+          <t>recordNum1_sentence95_m9_d13_h8_m37_s30.wav</t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>83</v>
-      </c>
-      <c r="P32" t="inlineStr"/>
+        <v>95</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>odd</t>
+        </is>
+      </c>
       <c r="Q32" t="inlineStr">
         <is>
           <t>m</t>
@@ -3213,7 +3146,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -3255,18 +3188,18 @@
         <v>1</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1.173729658126831</v>
+        <v>1.517413139343262</v>
       </c>
       <c r="J33" t="n">
-        <v>1637135296.031926</v>
+        <v>1643807073.722804</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3275,19 +3208,19 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>אני לא מצליח לסיים שום דבר.</t>
+          <t>אני מרגיש חסר אונים.</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>1470.354166666667</v>
+        <v>1639.895833333333</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>recordNum1_sentence28_m9_d13_h8_m42_s40.wav</t>
+          <t>recordNum1_sentence23_m9_d13_h8_m40_s21.wav</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
@@ -3301,7 +3234,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -3347,39 +3280,39 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1.147846937179565</v>
+        <v>0.8520388603210449</v>
       </c>
       <c r="J34" t="n">
-        <v>1637135298.738847</v>
+        <v>1643807076.820404</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>אני צריך לעשות קניות.</t>
+          <t>אני לא שווה כלום.</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>1007.708333333333</v>
+        <v>1072.666666666667</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>recordNum1_sentence90_m9_d13_h8_m36_s24.wav</t>
+          <t>recordNum1_sentence19_m9_d13_h8_m40_s9.wav</t>
         </is>
       </c>
       <c r="O34" t="n">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -3389,7 +3322,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -3431,39 +3364,39 @@
         <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0.4930193424224854</v>
+        <v>4.158209323883057</v>
       </c>
       <c r="J35" t="n">
-        <v>1637135302.044159</v>
+        <v>1643807079.39376</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>אני אף פעם לא אצליח.</t>
+          <t>איפה החניתי את האוטו?</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>1630.395833333333</v>
+        <v>1213.6875</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>recordNum1_sentence22_m9_d13_h8_m42_s21.wav</t>
+          <t>recordNum1_sentence75_m9_d13_h8_m38_s17.wav</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
@@ -3477,7 +3410,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -3492,6 +3425,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>